--- a/Settings/Root/Legends/PIOLab_RootClassification.xlsx
+++ b/Settings/Root/Legends/PIOLab_RootClassification.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hwieland\Github workspace\PIOLab\ConcordanceLibrary\LabelsAndCodes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hwieland\Github workspace\PIOLab\Settings\Root\Legends\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="819" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="819" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="1" r:id="rId1"/>
@@ -8406,7 +8406,7 @@
   <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9361,8 +9361,8 @@
   </sheetPr>
   <dimension ref="A1:M267"/>
   <sheetViews>
-    <sheetView topLeftCell="A267" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B267" sqref="B267"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13954,8 +13954,8 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14024,7 +14024,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>224</v>
+        <v>958</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -14032,7 +14032,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -14040,7 +14040,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>958</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -14048,7 +14048,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
   </sheetData>
@@ -14070,7 +14070,7 @@
   </sheetPr>
   <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
